--- a/Leaf_AR contributors.xlsx
+++ b/Leaf_AR contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandraharker/Dropbox/2020_Gray_Area_Creative_Code/Leaf_AR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{032A45A4-34B7-7C44-9E01-F5F802582F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7599F-8D25-FF49-A8B3-38F70E9A3530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{1BB39638-F0F4-E24F-ADFD-79FEB510CCE1}"/>
+    <workbookView xWindow="2660" yWindow="2240" windowWidth="26120" windowHeight="13340" xr2:uid="{1BB39638-F0F4-E24F-ADFD-79FEB510CCE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Michelle Halbur</t>
+  </si>
+  <si>
+    <t>Barbara Harker</t>
+  </si>
+  <si>
+    <t>Sarah Reid</t>
+  </si>
+  <si>
+    <t>Draper-Swift</t>
+  </si>
+  <si>
+    <t>Chris Holmes</t>
+  </si>
+  <si>
+    <t>Karen Gebbia</t>
+  </si>
+  <si>
+    <t>Denise Gilmer</t>
+  </si>
+  <si>
+    <t>Christine Jennings</t>
+  </si>
+  <si>
+    <t>Kim Armstrong</t>
+  </si>
+  <si>
+    <t>Heide Keeble</t>
+  </si>
+  <si>
+    <t>Vivian Watkins Lenzini</t>
+  </si>
+  <si>
+    <t>Jennifer Jewell</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +421,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66673572-5008-4048-B80E-C1B8A1B1D7E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A12">
+    <sortCondition ref="A1:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Leaf_AR contributors.xlsx
+++ b/Leaf_AR contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandraharker/Dropbox/2020_Gray_Area_Creative_Code/Leaf_AR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7599F-8D25-FF49-A8B3-38F70E9A3530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3CC0A2-069B-DB4C-81BE-4E19289661C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2240" windowWidth="26120" windowHeight="13340" xr2:uid="{1BB39638-F0F4-E24F-ADFD-79FEB510CCE1}"/>
+    <workbookView xWindow="880" yWindow="3620" windowWidth="26120" windowHeight="13340" xr2:uid="{1BB39638-F0F4-E24F-ADFD-79FEB510CCE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Michelle Halbur</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Sarah Reid</t>
   </si>
   <si>
-    <t>Draper-Swift</t>
-  </si>
-  <si>
     <t>Chris Holmes</t>
   </si>
   <si>
@@ -70,19 +67,31 @@
   </si>
   <si>
     <t>Jennifer Jewell</t>
+  </si>
+  <si>
+    <t>Loren Roman- Nunez</t>
+  </si>
+  <si>
+    <t>Laura Nininger Devlin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66673572-5008-4048-B80E-C1B8A1B1D7E3}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,42 +446,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -486,7 +496,12 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
